--- a/results/mod3.antielite_salienceBYhealth.eff.COMB.xlsx
+++ b/results/mod3.antielite_salienceBYhealth.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.078190312866442</v>
+        <v>0.0781893558436011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0225841175985999</v>
+        <v>0.0225840213759339</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0339262557505691</v>
+        <v>0.033925487320688</v>
       </c>
       <c r="F2" t="n">
-        <v>0.122454369982315</v>
+        <v>0.122453224366514</v>
       </c>
       <c r="G2" t="n">
-        <v>3.46218144344456</v>
+        <v>3.46215381849229</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000535815796256128</v>
+        <v>0.000535870798886332</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0143591221605861</v>
+        <v>-0.0143584879398369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0163448656400712</v>
+        <v>0.0163447834887576</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.046394470147272</v>
+        <v>-0.0463936749129067</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0176762258260997</v>
+        <v>0.017676699033233</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.878509648031807</v>
+        <v>-0.878475260912022</v>
       </c>
       <c r="H3" t="n">
-        <v>0.379667204226472</v>
+        <v>0.379685857398629</v>
       </c>
     </row>
   </sheetData>
